--- a/_resource/excel/compound.xlsx
+++ b/_resource/excel/compound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26175" windowHeight="13065"/>
+    <workbookView windowWidth="26340" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="compound" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>DataName</t>
   </si>
   <si>
-    <t>Key</t>
+    <t>DataKey</t>
   </si>
   <si>
     <t>CompoundData</t>
@@ -63,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -91,41 +94,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +114,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -147,8 +143,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,7 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,53 +214,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,16 +479,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,17 +511,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +533,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +569,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -577,148 +580,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,31 +1158,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="47.75" style="4" customWidth="1"/>
-    <col min="5" max="6" width="17.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47.75" style="4" customWidth="1"/>
+    <col min="6" max="7" width="17.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,10 +1196,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:4">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1206,34 +1213,43 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" s="3" customFormat="1"/>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/_resource/excel/compound.xlsx
+++ b/_resource/excel/compound.xlsx
@@ -28,31 +28,31 @@
     <t>DataKey</t>
   </si>
   <si>
+    <t>CostData</t>
+  </si>
+  <si>
     <t>CompoundData</t>
   </si>
   <si>
-    <t>CostData</t>
-  </si>
-  <si>
     <t>属性名字</t>
   </si>
   <si>
     <t>属性id</t>
   </si>
   <si>
+    <t>消耗物品</t>
+  </si>
+  <si>
     <t>合成的物品</t>
   </si>
   <si>
-    <t>消耗物品</t>
-  </si>
-  <si>
     <t>skill</t>
   </si>
   <si>
+    <t>[{"money":"10000"}]</t>
+  </si>
+  <si>
     <t>[{"skill":{"id":"1"}}] </t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"10000"}}]</t>
   </si>
   <si>
     <t>hero</t>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -94,13 +94,112 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,100 +220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,21 +237,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,79 +269,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,103 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,15 +497,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -518,21 +509,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +546,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -580,148 +580,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,7 +1163,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1171,8 +1171,8 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="47.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.625" style="4" customWidth="1"/>
     <col min="6" max="7" width="17.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="19.125" style="4" customWidth="1"/>
     <col min="9" max="9" width="17.125" style="4" customWidth="1"/>
@@ -1228,10 +1228,10 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1246,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
